--- a/Practicos/Pr5/ej2/medidas.xlsx
+++ b/Practicos/Pr5/ej2/medidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://finguy-my.sharepoint.com/personal/federico_gil_fing_edu_uy/Documents/Escritorio/Facultad/Semestre 11/GPGPU/Practico 1/cositas/GPGPU/Practicos/Pr5/ej2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{03AB7D62-998F-407B-A44C-8DB08F168B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41B3351B-4311-425F-B563-F053B6117361}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{03AB7D62-998F-407B-A44C-8DB08F168B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA9E3FB5-61C4-49A8-984E-C35A3FC1E93E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0CB9FEBA-E730-498A-A231-892AF630E19F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Tiempo de ejecucion A_matrix</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Pertenencia al IDC</t>
+  </si>
+  <si>
+    <t>Parlelizacion</t>
+  </si>
+  <si>
+    <t>Parte paralela vs no paralela (en milisegundos)</t>
   </si>
 </sst>
 </file>
@@ -91,8 +97,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,26 +145,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -176,6 +187,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABA404E-D49E-4CC1-872E-7879D981FF11}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="13" style="4" customWidth="1"/>
+    <col min="2" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="9" max="10" width="11.5703125" customWidth="1"/>
     <col min="13" max="14" width="11.5703125" customWidth="1"/>
@@ -512,10 +527,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
@@ -532,13 +547,13 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -570,13 +585,13 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="4">
+      <c r="B3">
         <v>2.4515000000000001E-3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>1.9724600000000001E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>8.6083900000000005E-3</v>
       </c>
       <c r="F3">
@@ -608,13 +623,13 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
+      <c r="B4">
         <v>2.5853400000000002E-3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4">
         <v>2.0223900000000002E-3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4">
         <v>8.2486399999999998E-3</v>
       </c>
       <c r="F4">
@@ -646,13 +661,13 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5">
         <v>2.5176E-3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>2.1099999999999999E-3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5">
         <v>7.9427300000000003E-3</v>
       </c>
       <c r="F5">
@@ -684,13 +699,13 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6">
         <v>2.4675399999999998E-3</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>1.9919999999999998E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6">
         <v>8.0585099999999996E-3</v>
       </c>
       <c r="F6">
@@ -722,13 +737,13 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7">
         <v>2.4603099999999998E-3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>2.0279199999999999E-3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7">
         <v>8.1930000000000006E-3</v>
       </c>
       <c r="F7">
@@ -763,15 +778,15 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <f>AVERAGE(B3:B7)*100</f>
         <v>0.2496458</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9">
         <f>AVERAGE(C3:C7)*100</f>
         <v>0.20249539999999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
         <f>AVERAGE(E3:E7)*100</f>
         <v>0.82102540000000002</v>
       </c>
@@ -816,15 +831,15 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f>STDEV(B3:B7)*100</f>
         <v>5.5926613700455815E-3</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>STDEV(C3:C7)*100</f>
         <v>5.2654011053290097E-3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f>STDEV(E3:E7)*100</f>
         <v>2.5242760948438282E-2</v>
       </c>
@@ -865,196 +880,765 @@
         <v>0.19677847808589241</v>
       </c>
     </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="Q12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="U12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="7"/>
+    </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="4">
+        <v>5.4772800000000003E-2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.8948000000000004E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.115938</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.154E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.119253</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.3063899999999998E-2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.14630499999999999</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.436611E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.10585600000000001</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2.35642E-2</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0.13281999999999999</v>
+      </c>
+      <c r="V13" s="2">
+        <v>4.8293999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>5.47857E-2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7.0549999999999996E-3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.11612</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.1133200000000001E-2</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.15684400000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2.2637399999999998E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.12277299999999999</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.24753500000000001</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.108225</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2.5185200000000001E-2</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0.13244400000000001</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3.9341300000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>5.3313800000000001E-2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6.9090000000000002E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.118274</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.20611E-2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.13433400000000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.2744799999999999E-2</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.123976</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2.5330399999999999E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.10367999999999999</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2.3626999999999999E-2</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0.14987600000000001</v>
+      </c>
+      <c r="V15" s="2">
+        <v>3.9766200000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>5.398E-2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8.4960999999999995E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.11891400000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.1389999999999999E-2</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.13114899999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.26062E-2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.12151099999999999</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2.5080000000000002E-2</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.107256</v>
+      </c>
+      <c r="R16" s="2">
+        <v>2.2926599999999998E-2</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.13413600000000001</v>
+      </c>
+      <c r="V16" s="2">
+        <v>4.7901300000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>5.5649999999999998E-2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6.6969000000000004E-3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.132659</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.1800400000000001E-2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2.3380000000000001E-2</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.126328</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.107779</v>
+      </c>
+      <c r="R17" s="2">
+        <v>9.3550100000000004E-3</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.13288</v>
+      </c>
+      <c r="V17" s="2">
+        <v>3.9705900000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
+        <f>AVERAGE(B13:B17)</f>
+        <v>5.4500459999999994E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <f>AVERAGE(C13:C17)</f>
+        <v>7.2103600000000007E-3</v>
+      </c>
+      <c r="E19" s="4">
+        <f>AVERAGE(E13:E17)</f>
+        <v>0.120381</v>
+      </c>
+      <c r="F19" s="4">
+        <f>AVERAGE(F13:F17)</f>
+        <v>2.1584939999999997E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <f>AVERAGE(I13:I17)</f>
+        <v>0.132796</v>
+      </c>
+      <c r="J19" s="4">
+        <f>AVERAGE(J13:J17)</f>
+        <v>2.2886460000000001E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <f>AVERAGE(M13:M17)</f>
+        <v>0.1281786</v>
+      </c>
+      <c r="N19" s="4">
+        <f>AVERAGE(N13:N17)</f>
+        <v>6.9422301999999991E-2</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>AVERAGE(Q13:Q17)</f>
+        <v>0.10655920000000001</v>
+      </c>
+      <c r="R19" s="4">
+        <f>AVERAGE(R13:R17)</f>
+        <v>2.0931602000000001E-2</v>
+      </c>
+      <c r="U19" s="4">
+        <f>AVERAGE(U13:U17)</f>
+        <v>0.1364312</v>
+      </c>
+      <c r="V19" s="4">
+        <f>AVERAGE(V13:V17)</f>
+        <v>4.3001739999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="4">
+        <f>STDEV(B13:B17)</f>
+        <v>8.8825864926833024E-4</v>
+      </c>
+      <c r="C20" s="4">
+        <f>STDEV(C13:C17)</f>
+        <v>7.299488358782412E-4</v>
+      </c>
+      <c r="E20" s="4">
+        <f>STDEV(E13:E17)</f>
+        <v>6.9863651493462598E-3</v>
+      </c>
+      <c r="F20" s="4">
+        <f>STDEV(F13:F17)</f>
+        <v>3.5959755004727148E-4</v>
+      </c>
+      <c r="I20" s="4">
+        <f>STDEV(I13:I17)</f>
+        <v>1.4789134710996453E-2</v>
+      </c>
+      <c r="J20" s="4">
+        <f>STDEV(J13:J17)</f>
+        <v>3.3004196399852016E-4</v>
+      </c>
+      <c r="M20" s="4">
+        <f>STDEV(M13:M17)</f>
+        <v>1.028749660024245E-2</v>
+      </c>
+      <c r="N20" s="4">
+        <f>STDEV(N13:N17)</f>
+        <v>9.9568668554415374E-2</v>
+      </c>
+      <c r="Q20" s="4">
+        <f>STDEV(Q13:Q17)</f>
+        <v>1.8393351244403531E-3</v>
+      </c>
+      <c r="R20" s="4">
+        <f>STDEV(R13:R17)</f>
+        <v>6.524690374034625E-3</v>
+      </c>
+      <c r="U20" s="4">
+        <f>STDEV(U13:U17)</f>
+        <v>7.5428797683643389E-3</v>
+      </c>
+      <c r="V20" s="4">
+        <f>STDEV(V13:V17)</f>
+        <v>4.6568177302746113E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B25" s="5">
         <f>C9</f>
         <v>0.20249539999999999</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C25" s="3">
         <f>C10</f>
         <v>5.2654011053290097E-3</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D25" s="3">
         <f>B9</f>
         <v>0.2496458</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E25" s="3">
         <f>B10</f>
         <v>5.5926613700455815E-3</v>
       </c>
-      <c r="F15" t="str">
-        <f>IF(D15&gt;(B15-C15),IF(D15&lt;(B15+C15),"Pertenece al IDC","No pertenece al IDC"),"No pertenece al IDC")</f>
+      <c r="F25" t="str">
+        <f>IF(D25&gt;(B25-C25),IF(D25&lt;(B25+C25),"Pertenece al IDC","No pertenece al IDC"),"No pertenece al IDC")</f>
         <v>No pertenece al IDC</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B26" s="5">
         <f>F9</f>
         <v>0.73608980000000002</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C26" s="3">
         <f>F10</f>
         <v>5.4430438292374622E-2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D26" s="3">
         <f>E9</f>
         <v>0.82102540000000002</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E26" s="3">
         <f>E10</f>
         <v>2.5242760948438282E-2</v>
       </c>
-      <c r="F16" t="str">
-        <f t="shared" ref="F16:F20" si="0">IF(D16&gt;(B16-C16),IF(D16&lt;(B16+C16),"Pertenece al IDC","No pertenece al IDC"),"No pertenece al IDC")</f>
+      <c r="F26" t="str">
+        <f t="shared" ref="F26:F30" si="0">IF(D26&gt;(B26-C26),IF(D26&lt;(B26+C26),"Pertenece al IDC","No pertenece al IDC"),"No pertenece al IDC")</f>
         <v>No pertenece al IDC</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B27" s="5">
         <f>J9</f>
         <v>0.71887920000000016</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C27" s="3">
         <f>J10</f>
         <v>5.9499538533504641E-2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D27" s="3">
         <f>I9</f>
         <v>0.78765840000000009</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E27" s="3">
         <f>I10</f>
         <v>2.8408098076076832E-2</v>
       </c>
-      <c r="F17" t="str">
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>No pertenece al IDC</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B28" s="3">
         <f>N9</f>
         <v>1.0097682000000001</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C28" s="3">
         <f>N10</f>
         <v>0.33130667064850911</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D28" s="5">
         <f>M9</f>
         <v>0.85338151999999989</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E28" s="3">
         <f>M10</f>
         <v>6.0810692013428001E-2</v>
       </c>
-      <c r="F18" t="str">
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>Pertenece al IDC</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B29" s="5">
         <f>R9</f>
         <v>0.89425960000000004</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C29" s="3">
         <f>R10</f>
         <v>2.0260621468750673E-2</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D29" s="3">
         <f>Q9</f>
         <v>0.96758420000000001</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E29" s="3">
         <f>Q10</f>
         <v>3.4975625369676978E-3</v>
       </c>
-      <c r="F19" t="str">
+      <c r="F29" t="str">
         <f t="shared" si="0"/>
         <v>No pertenece al IDC</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B30" s="5">
         <f>V9</f>
         <v>0.32973259999999999</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C30" s="3">
         <f>V10</f>
         <v>0.19677847808589241</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D30" s="3">
         <f>U9</f>
         <v>0.45945980000000003</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E30" s="3">
         <f>U10</f>
         <v>0.29163999387806877</v>
       </c>
-      <c r="F20" t="str">
+      <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>Pertenece al IDC</v>
       </c>
     </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="5">
+        <f>C19</f>
+        <v>7.2103600000000007E-3</v>
+      </c>
+      <c r="C37" s="9">
+        <f>C20</f>
+        <v>7.299488358782412E-4</v>
+      </c>
+      <c r="D37" s="9">
+        <f>B19</f>
+        <v>5.4500459999999994E-2</v>
+      </c>
+      <c r="E37" s="9">
+        <f>B20</f>
+        <v>8.8825864926833024E-4</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(D37&gt;(B37-C37),IF(D37&lt;(B37+C37),"Pertenece al IDC","No pertenece al IDC"),"No pertenece al IDC")</f>
+        <v>No pertenece al IDC</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <f>F19</f>
+        <v>2.1584939999999997E-2</v>
+      </c>
+      <c r="C38" s="9">
+        <f>F20</f>
+        <v>3.5959755004727148E-4</v>
+      </c>
+      <c r="D38" s="9">
+        <f>E19</f>
+        <v>0.120381</v>
+      </c>
+      <c r="E38" s="9">
+        <f>E20</f>
+        <v>6.9863651493462598E-3</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" ref="F38:F42" si="1">IF(D38&gt;(B38-C38),IF(D38&lt;(B38+C38),"Pertenece al IDC","No pertenece al IDC"),"No pertenece al IDC")</f>
+        <v>No pertenece al IDC</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="5">
+        <f>J19</f>
+        <v>2.2886460000000001E-2</v>
+      </c>
+      <c r="C39" s="9">
+        <f>J20</f>
+        <v>3.3004196399852016E-4</v>
+      </c>
+      <c r="D39" s="9">
+        <f>I19</f>
+        <v>0.132796</v>
+      </c>
+      <c r="E39" s="9">
+        <f>I20</f>
+        <v>1.4789134710996453E-2</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>No pertenece al IDC</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5">
+        <f>N19</f>
+        <v>6.9422301999999991E-2</v>
+      </c>
+      <c r="C40" s="9">
+        <f>N20</f>
+        <v>9.9568668554415374E-2</v>
+      </c>
+      <c r="D40" s="9">
+        <f>M19</f>
+        <v>0.1281786</v>
+      </c>
+      <c r="E40" s="9">
+        <f>M20</f>
+        <v>1.028749660024245E-2</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>Pertenece al IDC</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5">
+        <f>R19</f>
+        <v>2.0931602000000001E-2</v>
+      </c>
+      <c r="C41" s="9">
+        <f>R20</f>
+        <v>6.524690374034625E-3</v>
+      </c>
+      <c r="D41" s="9">
+        <f>Q19</f>
+        <v>0.10655920000000001</v>
+      </c>
+      <c r="E41" s="9">
+        <f>Q20</f>
+        <v>1.8393351244403531E-3</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>No pertenece al IDC</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" s="5">
+        <f>V19</f>
+        <v>4.3001739999999997E-2</v>
+      </c>
+      <c r="C42" s="9">
+        <f>V20</f>
+        <v>4.6568177302746113E-3</v>
+      </c>
+      <c r="D42" s="9">
+        <f>U20</f>
+        <v>7.5428797683643389E-3</v>
+      </c>
+      <c r="E42" s="9">
+        <f>U20</f>
+        <v>7.5428797683643389E-3</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>No pertenece al IDC</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:F14"/>
+  <mergeCells count="13">
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>